--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_reinsurance.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.059</v>
+        <v>0.08869999999999999</v>
       </c>
       <c r="G2">
-        <v>0.02749725576289791</v>
+        <v>0.08419337316675719</v>
       </c>
       <c r="H2">
-        <v>0.02749725576289791</v>
+        <v>0.08419337316675719</v>
       </c>
       <c r="I2">
-        <v>0.06805708013172339</v>
+        <v>0.05111352525801195</v>
       </c>
       <c r="J2">
-        <v>0.06652858505335517</v>
+        <v>0.03297323492134496</v>
       </c>
       <c r="K2">
-        <v>11.9</v>
+        <v>6.58</v>
       </c>
       <c r="L2">
-        <v>0.06531284302963776</v>
+        <v>0.03574144486692015</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,31 +633,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>15.1</v>
+        <v>12.1</v>
       </c>
       <c r="V2">
-        <v>0.07519920318725098</v>
+        <v>0.03705972434915773</v>
       </c>
       <c r="W2">
-        <v>0.05277161862527716</v>
+        <v>0.02811965811965812</v>
       </c>
       <c r="X2">
-        <v>0.07341916534638997</v>
+        <v>0.07693172573644817</v>
       </c>
       <c r="Y2">
-        <v>-0.0206475467211128</v>
+        <v>-0.04881206761679005</v>
       </c>
       <c r="Z2">
-        <v>0.903321764997521</v>
+        <v>0.8410232983097304</v>
       </c>
       <c r="AA2">
-        <v>0.06009671887318449</v>
+        <v>0.02773125878949112</v>
       </c>
       <c r="AB2">
-        <v>0.07341916534638997</v>
+        <v>0.07693172573644817</v>
       </c>
       <c r="AC2">
-        <v>-0.01332244647320548</v>
+        <v>-0.04920046694695705</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-15.1</v>
+        <v>-12.1</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.08131394722670973</v>
+        <v>-0.03848600508905853</v>
       </c>
       <c r="AK2">
-        <v>-0.06898126998629511</v>
+        <v>-0.05309346204475647</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-1.170542635658915</v>
+        <v>-1.217303822937626</v>
       </c>
     </row>
     <row r="3">
@@ -713,25 +713,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.059</v>
+        <v>0.08869999999999999</v>
       </c>
       <c r="G3">
-        <v>0.02749725576289791</v>
+        <v>0.08419337316675719</v>
       </c>
       <c r="H3">
-        <v>0.02749725576289791</v>
+        <v>0.08419337316675719</v>
       </c>
       <c r="I3">
-        <v>0.06805708013172339</v>
+        <v>0.05111352525801195</v>
       </c>
       <c r="J3">
-        <v>0.06652858505335517</v>
+        <v>0.03297323492134496</v>
       </c>
       <c r="K3">
-        <v>11.9</v>
+        <v>6.58</v>
       </c>
       <c r="L3">
-        <v>0.06531284302963776</v>
+        <v>0.03574144486692015</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,31 +755,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>15.1</v>
+        <v>12.1</v>
       </c>
       <c r="V3">
-        <v>0.07519920318725098</v>
+        <v>0.03705972434915773</v>
       </c>
       <c r="W3">
-        <v>0.05277161862527716</v>
+        <v>0.02811965811965812</v>
       </c>
       <c r="X3">
-        <v>0.07341916534638997</v>
+        <v>0.07693172573644817</v>
       </c>
       <c r="Y3">
-        <v>-0.0206475467211128</v>
+        <v>-0.04881206761679005</v>
       </c>
       <c r="Z3">
-        <v>0.903321764997521</v>
+        <v>0.8410232983097304</v>
       </c>
       <c r="AA3">
-        <v>0.06009671887318449</v>
+        <v>0.02773125878949112</v>
       </c>
       <c r="AB3">
-        <v>0.07341916534638997</v>
+        <v>0.07693172573644817</v>
       </c>
       <c r="AC3">
-        <v>-0.01332244647320548</v>
+        <v>-0.04920046694695705</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-15.1</v>
+        <v>-12.1</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.08131394722670973</v>
+        <v>-0.03848600508905853</v>
       </c>
       <c r="AK3">
-        <v>-0.06898126998629511</v>
+        <v>-0.05309346204475647</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-1.170542635658915</v>
+        <v>-1.217303822937626</v>
       </c>
     </row>
   </sheetData>
